--- a/output7/【河洛文讀注音-閩拼調號】《了凡四訓【第四篇、謙德之效】》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《了凡四訓【第四篇、謙德之效】》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{185676FA-986A-40EB-BD6C-6AAA14619A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76FBDB3F-328E-4813-A8C1-6ED6422347FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -9651,7 +9651,7 @@
   <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -9817,7 +9817,7 @@
         <v>1156</v>
       </c>
       <c r="C20" s="46">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
